--- a/notebooks/STAT3/input/STAT3_HIES1_individuals.xlsx
+++ b/notebooks/STAT3/input/STAT3_HIES1_individuals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/STAT3/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2330C46B-66DC-4945-B89A-BEB5AB3700F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F82304-434E-BB46-8B0E-A5218CA9D2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1660" yWindow="6700" windowWidth="34180" windowHeight="9040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
